--- a/hello world.xlsx
+++ b/hello world.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>Hello World !</t>
+    <t>Hello PANKAJ !</t>
   </si>
 </sst>
 </file>
@@ -44,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -52,12 +52,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,18 +397,30 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
